--- a/biology/Médecine/Hôpital_Saint-Joseph_de_Château-Gontier/Hôpital_Saint-Joseph_de_Château-Gontier.xlsx
+++ b/biology/Médecine/Hôpital_Saint-Joseph_de_Château-Gontier/Hôpital_Saint-Joseph_de_Château-Gontier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Joseph_de_Ch%C3%A2teau-Gontier</t>
+          <t>Hôpital_Saint-Joseph_de_Château-Gontier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital Saint-Joseph de Château-Gontier est un établissement caritatif fondé au XVIIe siècle, d'abord orphelinat puis hôpital, tenu par des religieuses catholiques.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Saint-Joseph_de_Ch%C3%A2teau-Gontier</t>
+          <t>Hôpital_Saint-Joseph_de_Château-Gontier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'hôpital vint compléter au XVIIe siècle les œuvres de bienfaisance. Il fut d'abord un orphelinat[note 1]. Le revenu de quatre maisons du faubourg Tréhu et du lieu de la Vallerie constitua les premières ressources de l'établissement, approuvé successivement, en 1663, par l'évêque, par les échevins et par le seigneur.
 La chapelle fut bénite le 2 janvier 1671. Les demoiselles Françoise et Laurence Doublard, à qui la fondatrice, trop âgée, remit ses droits transférèrent l'orphelinat au faubourg Tréhu le 28 septembre 1676[note 2]. Elles se transportèrent enfin, au mois de juin 1698, dans la maison et la closerie d'Olivet acquises par la ville. Mlle Marie-Anne Douard de Fleurance[note 3] eut le titre de première supérieure des filles qui seroient reçues par les administrateurs pour le gouvernement des pauvres.
